--- a/Shaders/Shader内置函数.xlsx
+++ b/Shaders/Shader内置函数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="内置函数" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="225">
   <si>
     <t>返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,10 +1032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZWrite Off/on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于关闭或开启深度写入。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,7 +1103,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型到空间矩阵</t>
+    <t>ColorMask 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColorMask用于设置颜色通道的写掩码(write mask)。值为0时，意味着该Pass不写入任何颜色通道，即不输出任何颜色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWrite </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off/on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorMask </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB | A | 0 | 其它他任何R、G、B、A的组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zwrite on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul(unity_ObjectToWorld, v.vertex)把模型从模型空间转换到世界空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型到世界矩阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,6 +1269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,25 +1343,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1346,6 +1382,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,8 +1418,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,319 +1743,319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="40.5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="27">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="40.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="34"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="34"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="34"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="34"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="34"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="34"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2013,265 +2073,492 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="34.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="37.875" customWidth="1"/>
     <col min="4" max="4" width="110.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="27">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="46"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5">
+      <c r="A20" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D20" s="48" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" t="s">
-        <v>196</v>
-      </c>
+    <row r="21" spans="1:4">
+      <c r="A21" s="46"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="46"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="46"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="46"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="46"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="46"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="46"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="46"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="46"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="46"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="46"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="46"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="46"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="46"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="46"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="46"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="46"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="46"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="46"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="46"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="46"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="46"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="46"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="46"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="46"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="46"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="46"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="46"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2288,7 +2575,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2300,404 +2587,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="36"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="36"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="36"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="41"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="41"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="44" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="33"/>
+      <c r="B15" s="21" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="28" t="s">
+      <c r="C15" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="44">
+      <c r="D16" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="28" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="33"/>
+      <c r="B17" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="39"/>
-      <c r="B17" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="40"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="27">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
-      <c r="B36" s="28" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="37"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="37"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="37"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2718,7 +3005,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2730,139 +3017,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="36"/>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="36"/>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="36"/>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="36"/>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="36"/>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="36"/>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="36"/>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="36"/>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="36"/>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="36"/>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="42"/>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="42"/>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="43"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="43"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="43"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="42"/>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="43"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="43"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="42"/>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="42"/>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D14">
@@ -2870,11 +3157,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D15">
@@ -2882,11 +3169,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D16">
@@ -2894,11 +3181,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="27">
-      <c r="A17" s="34"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D17">
@@ -2906,11 +3193,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="34"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D18">
@@ -2918,22 +3205,22 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5">
-      <c r="A21" s="29" t="s">
-        <v>202</v>
+      <c r="A21" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="3" t="s">
         <v>200</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2965,16 +3252,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2994,16 +3281,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
         <v>197</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
